--- a/assets/occ_simulation.xlsx
+++ b/assets/occ_simulation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsf-pro16-m3/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsf-pro16-m3/projects/occ/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C26ED1F-73F0-8E4E-84AE-35D592918E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE19F1-27EC-AA43-8ED3-A8579A9E39CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17100" xr2:uid="{71EFAA14-79D8-E348-B2E0-B900303C054C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C444D272-E953-F84E-9A74-3F7233682E50}">
-  <dimension ref="C1:J11"/>
+  <dimension ref="C1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.2">
@@ -475,11 +475,11 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f>COMBIN($D$1,$D$1+$C7-$D$4)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <f>COMBIN($C7,$D$2)</f>
@@ -487,37 +487,37 @@
       </c>
       <c r="F7">
         <f>COMBIN($D$2,($D$2+$D$3)-$C7)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>PRODUCT(D7:F7)</f>
-        <v>210</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f>COMBIN($D$1,$D$1+$C8-$D$4)</f>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <f>COMBIN($C8,$D$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F10" si="0">COMBIN($D$2,($D$2+$D$3)-$C8)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <f>PRODUCT(D8:F8)</f>
-        <v>2100</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <f>COMBIN($D$1,$D$1+$C9-$D$4)</f>
@@ -525,28 +525,28 @@
       </c>
       <c r="E9">
         <f>COMBIN($C9,$D$2)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f>PRODUCT(D9:F9)</f>
-        <v>3675</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <f>COMBIN($D$1,$D$1+$C10-$D$4)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <f>COMBIN($C10,$D$2)</f>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -554,17 +554,17 @@
       </c>
       <c r="G10">
         <f>PRODUCT(D10:F10)</f>
-        <v>1176</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.2">
       <c r="G11">
         <f>SUM(G7:G10)</f>
-        <v>7161</v>
+        <v>3983</v>
       </c>
       <c r="H11">
         <f>COMBIN(D4,D2)</f>
-        <v>252</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="I11">
         <f>COMBIN(D4,D3)</f>
@@ -572,7 +572,13 @@
       </c>
       <c r="J11">
         <f>G11/H11/I11</f>
-        <v>0.23680555555555557</v>
+        <v>0.15805555555555556</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f>G11*COMBIN(D4,D1)</f>
+        <v>477960</v>
       </c>
     </row>
   </sheetData>
